--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556456_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556456_tead1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2775410578031577, 0.37421032008655447]</t>
+          <t>[0.27672664850198486, 0.3750247293877273]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.925526570469628e-12</v>
+        <v>5.394795721258561e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>3.925526570469628e-12</v>
+        <v>5.394795721258561e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157699</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4733019468811851, 0.5235499701823998]</t>
+          <t>[0.47329881429637743, 0.5235531027672075]</t>
         </is>
       </c>
       <c r="U2" t="n">

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556456_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556456_tead1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27672664850198486, 0.3750247293877273]</t>
+          <t>[0.27651378178063724, 0.3752375961090749]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.394795721258561e-12</v>
+        <v>5.856426454897701e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>5.394795721258561e-12</v>
+        <v>5.856426454897701e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157699</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.47329881429637743, 0.5235531027672075]</t>
+          <t>[0.4732938369699296, 0.5235580800936552]</t>
         </is>
       </c>
       <c r="U2" t="n">
